--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,91 +49,88 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -499,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,37 +607,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>110</v>
       </c>
-      <c r="D4">
-        <v>110</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>44</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -660,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3218884120171674</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
         <v>29</v>
@@ -752,45 +749,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>67</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +775,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,15 +801,15 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
         <v>47</v>
@@ -854,21 +827,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.70625</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7068965517241379</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,47 +1061,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>33</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
-      <c r="K20">
-        <v>0.5774647887323944</v>
-      </c>
-      <c r="L20">
-        <v>123</v>
-      </c>
       <c r="M20">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5561357702349869</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5428571428571428</v>
+        <v>0.52</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5208333333333334</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L25">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5151515151515151</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5038759689922481</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,33 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4782608695652174</v>
+        <v>0.009980682549903412</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,9 +58,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -70,67 +67,79 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>co</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2151162790697674</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.164021164021164</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7323943661971831</v>
+        <v>0.7125</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.70625</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6981132075471698</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6470588235294118</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5561357702349869</v>
+        <v>0.52</v>
       </c>
       <c r="L22">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.52</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4719101123595505</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4647058823529412</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L25">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.423728813559322</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L26">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3598326359832636</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L27">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>153</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,25 +1312,103 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.009980682549903412</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L28">
         <v>31</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>3075</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3347280334728033</v>
+      </c>
+      <c r="L29">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>80</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.03131991051454139</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01402524544179523</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2109</v>
       </c>
     </row>
   </sheetData>
